--- a/LOGS/f73f0ea6-6bc6-4a2e-a2c0-3d2005b3313e/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/f73f0ea6-6bc6-4a2e-a2c0-3d2005b3313e/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="159">
   <si>
     <t>line_item_0</t>
   </si>
@@ -321,12 +321,15 @@
     <t>2022 Closing net book amount</t>
   </si>
   <si>
+    <t>2022 Impairment charge</t>
+  </si>
+  <si>
+    <t>Year ended 31 March 2022</t>
+  </si>
+  <si>
     <t>Impairment charge</t>
   </si>
   <si>
-    <t>Year ended 31 March 2022</t>
-  </si>
-  <si>
     <t>Year ended 31 March 2023</t>
   </si>
   <si>
@@ -339,9 +342,39 @@
     <t>provision Relating to origination and reversal of temporary differences Prior year under/over</t>
   </si>
   <si>
+    <t>2023 loss</t>
+  </si>
+  <si>
+    <t>Accounting profit/(loss) before tax</t>
+  </si>
+  <si>
+    <t>At Australian statutory income tax rate at 30%</t>
+  </si>
+  <si>
+    <t>Non-deductible impairment losses</t>
+  </si>
+  <si>
+    <t>R&amp;D tax incentive</t>
+  </si>
+  <si>
+    <t>Other non-deductible expenses for tax purposes</t>
+  </si>
+  <si>
+    <t>Prior year under/over provision</t>
+  </si>
+  <si>
+    <t>Tax losses not recognised</t>
+  </si>
+  <si>
+    <t>Other adjustments</t>
+  </si>
+  <si>
     <t>loss</t>
   </si>
   <si>
+    <t>Income tax expense reported in the statement of profit or</t>
+  </si>
+  <si>
     <t>Deferred tax assets</t>
   </si>
   <si>
@@ -450,9 +483,6 @@
     <t>Balance at the beginning of the</t>
   </si>
   <si>
-    <t>Other adjustments</t>
-  </si>
-  <si>
     <t>Number of shares</t>
   </si>
   <si>
@@ -483,7 +513,7 @@
     <t>Interest on finance leases</t>
   </si>
   <si>
-    <t>Total finance expense</t>
+    <t>2023 Total finance expense</t>
   </si>
   <si>
     <t>Year ended 31/03/22 $</t>
@@ -2192,7 +2222,7 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>156261261</v>
@@ -2209,7 +2239,7 @@
         <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>156261261</v>
@@ -2226,7 +2256,7 @@
         <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>-156261261</v>
@@ -2257,13 +2287,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2276,13 +2306,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>-3115828</v>
@@ -2290,13 +2323,16 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2304,13 +2340,16 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>-4040422</v>
@@ -2318,13 +2357,16 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2332,13 +2374,16 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>163471</v>
@@ -2346,13 +2391,16 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>3844054</v>
@@ -2360,19 +2408,25 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>-196368</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -2382,15 +2436,351 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2">
+        <v>-156830673</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>47049202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>-46878378</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>459000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6">
+        <v>-65069</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>-761123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>-196368</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11">
+        <v>-4304263</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <v>1291279</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14">
+        <v>459000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <v>-41765</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16">
+        <v>-38996</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17">
+        <v>-70278</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18">
+        <v>-5773</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19">
+        <v>1593467</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +2821,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>62131759</v>
@@ -2451,7 +2841,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>62131759</v>
@@ -2468,10 +2858,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2488,10 +2878,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2511,10 +2901,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -2534,7 +2924,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>58287708</v>
@@ -2554,7 +2944,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D8">
         <v>58287708</v>
@@ -2571,10 +2961,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2591,10 +2981,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -2614,10 +3004,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2664,7 +3054,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -2678,7 +3068,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -2692,7 +3082,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2706,7 +3096,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -2720,7 +3110,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -2734,7 +3124,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -2748,7 +3138,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -2762,7 +3152,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -2812,10 +3202,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>3480225</v>
@@ -2832,10 +3222,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>87154123</v>
@@ -2852,10 +3242,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>3555979</v>
@@ -2872,10 +3262,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>90706343</v>
@@ -2925,7 +3315,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>363180850</v>
@@ -2942,7 +3332,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>5911064</v>
@@ -3044,7 +3434,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>-542907</v>
@@ -3095,7 +3485,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <v>363780138</v>
@@ -3112,7 +3502,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>5601638</v>
@@ -3214,7 +3604,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C19">
         <v>-1217209</v>
@@ -3586,7 +3976,7 @@
         <v>1366931</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3594,7 +3984,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -3603,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3611,7 +4001,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -3620,7 +4010,7 @@
         <v>-8987</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -3637,7 +4027,7 @@
         <v>1357944</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -3645,7 +4035,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -3654,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -3662,7 +4052,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -3671,7 +4061,7 @@
         <v>1357944</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -3688,7 +4078,7 @@
         <v>1357944</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -3696,7 +4086,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -3705,7 +4095,7 @@
         <v>9511</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E9">
         <v>2023</v>
@@ -3713,7 +4103,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -3722,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -3730,7 +4120,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -3739,7 +4129,7 @@
         <v>1367455</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -3747,7 +4137,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -3756,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>2023</v>
@@ -3764,7 +4154,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -3773,7 +4163,7 @@
         <v>1367455</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E13">
         <v>2023</v>
@@ -3790,7 +4180,7 @@
         <v>730348</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E14">
         <v>2023</v>
@@ -3798,7 +4188,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -3807,7 +4197,7 @@
         <v>6706</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E15">
         <v>2023</v>
@@ -3815,7 +4205,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -3824,7 +4214,7 @@
         <v>-468234</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E16">
         <v>2023</v>
@@ -3841,7 +4231,7 @@
         <v>268820</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E17">
         <v>2022</v>
@@ -3849,7 +4239,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -3858,7 +4248,7 @@
         <v>268820</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E18">
         <v>2023</v>
@@ -3866,7 +4256,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -3875,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E19">
         <v>2023</v>
@@ -3892,7 +4282,7 @@
         <v>268820</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E20">
         <v>2022</v>
@@ -3900,7 +4290,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -3909,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E21">
         <v>2023</v>
@@ -3917,7 +4307,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -3926,7 +4316,7 @@
         <v>-4112</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E22">
         <v>2023</v>
@@ -3934,7 +4324,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -3943,7 +4333,7 @@
         <v>264708</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E23">
         <v>2023</v>
@@ -3951,7 +4341,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -3960,7 +4350,7 @@
         <v>264708</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E24">
         <v>2023</v>
@@ -3968,7 +4358,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
@@ -3977,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>2023</v>
@@ -3994,7 +4384,7 @@
         <v>12312003</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E26">
         <v>2023</v>
@@ -4002,7 +4392,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -4011,7 +4401,7 @@
         <v>4284051</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E27">
         <v>2023</v>
@@ -4019,7 +4409,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -4028,7 +4418,7 @@
         <v>-3380536</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E28">
         <v>2023</v>
@@ -4045,7 +4435,7 @@
         <v>13215518</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E29">
         <v>2022</v>
@@ -4053,7 +4443,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -4062,7 +4452,7 @@
         <v>10252108</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E30">
         <v>2023</v>
@@ -4070,7 +4460,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -4079,7 +4469,7 @@
         <v>2963410</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E31">
         <v>2023</v>
@@ -4096,7 +4486,7 @@
         <v>13215518</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E32">
         <v>2022</v>
@@ -4104,7 +4494,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -4113,7 +4503,7 @@
         <v>7172409</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E33">
         <v>2023</v>
@@ -4121,7 +4511,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -4130,7 +4520,7 @@
         <v>-6248731</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E34">
         <v>2023</v>
@@ -4138,7 +4528,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -4147,7 +4537,7 @@
         <v>14139196</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E35">
         <v>2023</v>
@@ -4155,7 +4545,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -4164,7 +4554,7 @@
         <v>11175786</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E36">
         <v>2023</v>
@@ -4172,7 +4562,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -4181,7 +4571,7 @@
         <v>2963410</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E37">
         <v>2023</v>
@@ -4206,7 +4596,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -4223,7 +4613,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -4257,7 +4647,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -4274,7 +4664,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
@@ -4308,7 +4698,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -4325,7 +4715,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -4342,7 +4732,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
@@ -4359,7 +4749,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
@@ -4376,7 +4766,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
         <v>19</v>
@@ -4423,7 +4813,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4432,7 +4822,7 @@
         <v>85232800</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -4440,7 +4830,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -4449,7 +4839,7 @@
         <v>10500000</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -4457,7 +4847,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -4466,7 +4856,7 @@
         <v>95732800</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -4474,7 +4864,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4491,7 +4881,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -4508,7 +4898,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -4552,7 +4942,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4561,12 +4951,12 @@
         <v>93260</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -4575,12 +4965,12 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -4589,12 +4979,12 @@
         <v>2077000</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4603,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4641,7 +5031,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>95732800</v>
@@ -4658,7 +5048,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C3">
         <v>21470908</v>
@@ -4702,7 +5092,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -4711,12 +5101,12 @@
         <v>93260</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -4725,12 +5115,12 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -4739,12 +5129,12 @@
         <v>2077000</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -4753,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4791,16 +5181,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C2">
         <v>684240</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4811,16 +5201,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>684240</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -4831,16 +5221,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>569171007</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -4851,16 +5241,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>569171007</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -4871,16 +5261,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C6">
         <v>684240</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4891,16 +5281,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>684240</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -4911,16 +5301,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C8">
         <v>569171007</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -4931,16 +5321,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <v>569171007</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -4984,7 +5374,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C2">
         <v>242235</v>
@@ -5001,7 +5391,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C3">
         <v>338981</v>
@@ -5023,13 +5413,13 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5042,117 +5432,144 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>14375659</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>16164551</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>535333</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>10656323</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>5.5</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>1944262</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>29871720</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>31815982</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>158</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
